--- a/BuiTrongDuc/Result_heuristic.xlsx
+++ b/BuiTrongDuc/Result_heuristic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Visual Studio Code\Scheduling_Optimization\Project\VPR_prj_opt_hust\BuiTrongDuc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67389BC9-F576-4923-BA2F-0B12E0BD5E07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA93F55-F6AF-4420-A2B3-F5E088DD89C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{FA838BD8-9EBD-4FA3-AC32-B05EF0B7BED1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>data</t>
   </si>
@@ -135,6 +135,12 @@
   </si>
   <si>
     <t>IGA</t>
+  </si>
+  <si>
+    <t>GGA</t>
+  </si>
+  <si>
+    <t>IGGA</t>
   </si>
 </sst>
 </file>
@@ -486,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED56D0D9-4D42-451C-BFFC-E543FDB13AE3}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K23"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -497,7 +503,7 @@
     <col min="1" max="1" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -517,22 +523,28 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>30</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>31</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -552,26 +564,33 @@
         <v>360</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
         <f>(B2-C2)/B2*100</f>
         <v>9.7560975609756095</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <f>(B2-D2)/B2*100</f>
         <v>12.195121951219512</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <f>(B2-E2)/B2*100</f>
         <v>12.195121951219512</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <f>(B2-F2)/B2*100</f>
         <v>12.195121951219512</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M2">
+        <f>(B2-G2)/B2*100</f>
+        <v>12.195121951219512</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -591,26 +610,33 @@
         <v>861</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>861</v>
       </c>
       <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
         <f>(B3-C3)/B3*100</f>
         <v>0</v>
       </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I23" si="0">(B3-D3)/B3*100</f>
+      <c r="J3">
+        <f t="shared" ref="J3:J23" si="0">(B3-D3)/B3*100</f>
         <v>6.2841530054644812</v>
       </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J23" si="1">(B3-E3)/B3*100</f>
+      <c r="K3">
+        <f t="shared" ref="K3:K23" si="1">(B3-E3)/B3*100</f>
         <v>6.2841530054644812</v>
       </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K23" si="2">(B3-F3)/B3*100</f>
+      <c r="L3">
+        <f t="shared" ref="L3:L23" si="2">(B3-F3)/B3*100</f>
         <v>21.584699453551913</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M3">
+        <f t="shared" ref="M3:M23" si="3">(B3-G3)/B3*100</f>
+        <v>21.584699453551913</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -630,26 +656,33 @@
         <v>540</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H23" si="3">(B4-C4)/B4*100</f>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I23" si="4">(B4-C4)/B4*100</f>
         <v>13.23529411764706</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <f t="shared" si="0"/>
         <v>13.529411764705882</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <f t="shared" si="2"/>
         <v>20.588235294117645</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M4">
+        <f t="shared" si="3"/>
+        <v>20.588235294117645</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -669,26 +702,33 @@
         <v>1885</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1885</v>
       </c>
       <c r="H5">
-        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="4"/>
         <v>5.3079416531604533</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <f t="shared" si="0"/>
         <v>20.14586709886548</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <f t="shared" si="1"/>
         <v>20.842787682333878</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <f t="shared" si="2"/>
         <v>23.622366288492707</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M5">
+        <f t="shared" si="3"/>
+        <v>23.622366288492707</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -708,26 +748,33 @@
         <v>1193</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1193</v>
       </c>
       <c r="H6">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J6">
         <f t="shared" si="0"/>
         <v>17.756410256410255</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <f t="shared" si="1"/>
         <v>17.756410256410255</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <f t="shared" si="2"/>
         <v>23.525641025641026</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M6">
+        <f t="shared" si="3"/>
+        <v>23.525641025641026</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -747,26 +794,33 @@
         <v>3675</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>3628</v>
       </c>
       <c r="H7">
-        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="4"/>
         <v>2.3439427584505306</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <f t="shared" si="0"/>
         <v>8.1815938810757434</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <f t="shared" si="1"/>
         <v>7.3871206513693579</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <f t="shared" si="2"/>
         <v>9.3264248704663206</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M7">
+        <f t="shared" si="3"/>
+        <v>10.486059708857637</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -786,26 +840,33 @@
         <v>1785</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1793</v>
       </c>
       <c r="H8">
-        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="4"/>
         <v>3.2014228546020456</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <f t="shared" si="0"/>
         <v>19.617607825700315</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <f t="shared" si="1"/>
         <v>18.630502445531345</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <f t="shared" si="2"/>
         <v>20.631391729657626</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M8">
+        <f t="shared" si="3"/>
+        <v>20.275678079146285</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -825,26 +886,33 @@
         <v>1453</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1453</v>
       </c>
       <c r="H9">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J9">
         <f t="shared" si="0"/>
         <v>28.302073050345513</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <f t="shared" si="1"/>
         <v>28.094768015794671</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <f t="shared" si="2"/>
         <v>28.282329713721623</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M9">
+        <f t="shared" si="3"/>
+        <v>28.282329713721623</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -864,26 +932,33 @@
         <v>2284</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>2267</v>
       </c>
       <c r="H10">
-        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="4"/>
         <v>-1.0997345468335229</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <f t="shared" si="0"/>
         <v>12.825180128934388</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <f t="shared" si="1"/>
         <v>11.922639362912404</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <f t="shared" si="2"/>
         <v>13.386423966628744</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M10">
+        <f t="shared" si="3"/>
+        <v>14.031095942358739</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -903,26 +978,33 @@
         <v>1408</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1368</v>
       </c>
       <c r="H11">
-        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="4"/>
         <v>-5.117883841288096</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <f t="shared" si="0"/>
         <v>21.288096607245546</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <f t="shared" si="1"/>
         <v>19.36745255894192</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <f t="shared" si="2"/>
         <v>19.033927544565842</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M11">
+        <f t="shared" si="3"/>
+        <v>21.334100057504312</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -942,26 +1024,33 @@
         <v>1679</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1679</v>
       </c>
       <c r="H12">
-        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="4"/>
         <v>0.82304526748971196</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <f t="shared" si="0"/>
         <v>13.631687242798355</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <f t="shared" si="1"/>
         <v>13.631687242798355</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <f t="shared" si="2"/>
         <v>13.631687242798355</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M12">
+        <f t="shared" si="3"/>
+        <v>13.631687242798355</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -981,26 +1070,33 @@
         <v>6865</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>6385</v>
       </c>
       <c r="H13">
-        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="4"/>
         <v>3.6461850101282915</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <f t="shared" si="0"/>
         <v>10.846725185685345</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <f t="shared" si="1"/>
         <v>12.434841323430117</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <f t="shared" si="2"/>
         <v>7.2923700202565831</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M13">
+        <f t="shared" si="3"/>
+        <v>13.7744767049291</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1020,26 +1116,33 @@
         <v>2739</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>2551</v>
       </c>
       <c r="H14">
-        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="4"/>
         <v>1.6991818753933292</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <f t="shared" si="0"/>
         <v>17.8351164254248</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <f t="shared" si="1"/>
         <v>19.647577092511014</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <f t="shared" si="2"/>
         <v>13.81371932032725</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M14">
+        <f t="shared" si="3"/>
+        <v>19.729389553178102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1059,26 +1162,33 @@
         <v>1793</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1612</v>
       </c>
       <c r="H15">
-        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="4"/>
         <v>1.6378100140383716</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <f t="shared" si="0"/>
         <v>18.549368273280304</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <f t="shared" si="1"/>
         <v>20.589611605053815</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <f t="shared" si="2"/>
         <v>16.097332709405709</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M15">
+        <f t="shared" si="3"/>
+        <v>24.567150210575573</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1098,26 +1208,33 @@
         <v>5390</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>3280</v>
       </c>
       <c r="H16">
-        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="4"/>
         <v>-16.61631419939577</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <f t="shared" si="0"/>
         <v>2.0543806646525682</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <f t="shared" si="1"/>
         <v>-12.326283987915408</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <f t="shared" si="2"/>
         <v>-62.839879154078545</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M16">
+        <f t="shared" si="3"/>
+        <v>0.90634441087613304</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1137,26 +1254,33 @@
         <v>11610</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>4530</v>
       </c>
       <c r="H17">
-        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="4"/>
         <v>2.7290448343079921</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <f t="shared" si="0"/>
         <v>2.1832358674463941</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <f t="shared" si="1"/>
         <v>11.773879142300196</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <f t="shared" si="2"/>
         <v>-126.31578947368421</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M17">
+        <f t="shared" si="3"/>
+        <v>11.695906432748536</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1176,26 +1300,33 @@
         <v>6530</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>3510</v>
       </c>
       <c r="H18">
-        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="4"/>
         <v>-5.6603773584905666</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <f t="shared" si="0"/>
         <v>4.2048517520215638</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <f t="shared" si="1"/>
         <v>-0.59299191374663074</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <f t="shared" si="2"/>
         <v>-76.010781671159037</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M18">
+        <f t="shared" si="3"/>
+        <v>5.3908355795148255</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -1215,26 +1346,33 @@
         <v>7000</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>3380</v>
       </c>
       <c r="H19">
-        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="4"/>
         <v>-6.7415730337078648</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <f t="shared" si="0"/>
         <v>3.48314606741573</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <f t="shared" si="1"/>
         <v>-3.9887640449438204</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <f t="shared" si="2"/>
         <v>-96.629213483146074</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M19">
+        <f t="shared" si="3"/>
+        <v>5.0561797752808983</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1254,26 +1392,33 @@
         <v>7080</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>3410</v>
       </c>
       <c r="H20">
-        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="4"/>
         <v>-13.27683615819209</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <f t="shared" si="0"/>
         <v>1.3559322033898304</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <f t="shared" si="1"/>
         <v>-7.6271186440677967</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <f t="shared" si="2"/>
         <v>-100</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M20">
+        <f t="shared" si="3"/>
+        <v>3.6723163841807911</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -1293,26 +1438,33 @@
         <v>8160</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>3410</v>
       </c>
       <c r="H21">
-        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="4"/>
         <v>-8</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <f t="shared" si="0"/>
         <v>1.4285714285714286</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <f t="shared" si="1"/>
         <v>-8</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <f t="shared" si="2"/>
         <v>-133.14285714285714</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M21">
+        <f t="shared" si="3"/>
+        <v>2.5714285714285712</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1332,26 +1484,33 @@
         <v>8570</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>3490</v>
       </c>
       <c r="H22">
-        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="4"/>
         <v>-3.9106145251396649</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <f t="shared" si="0"/>
         <v>3.016759776536313</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <f t="shared" si="1"/>
         <v>-3.9106145251396649</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <f t="shared" si="2"/>
         <v>-139.38547486033519</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M22">
+        <f t="shared" si="3"/>
+        <v>2.5139664804469275</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1371,23 +1530,30 @@
         <v>8770</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>3520</v>
       </c>
       <c r="H23">
-        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="4"/>
         <v>-11.079545454545455</v>
       </c>
-      <c r="I23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="J23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K23">
         <f t="shared" si="1"/>
         <v>-5.625</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <f t="shared" si="2"/>
         <v>-149.14772727272728</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
